--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -22,7 +22,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Classroom</t>
+    <t>Lecture</t>
   </si>
   <si>
     <t>Didactic Questioning</t>
@@ -31,19 +31,19 @@
     <t>Demonstration</t>
   </si>
   <si>
-    <t>Practical</t>
-  </si>
-  <si>
-    <t>Classroom-based instruction is appropriate as it provides a structured environment for delivering essential knowledge. The classroom setting allows for direct interaction between the facilitator and learners, enabling real-time clarification of concepts and immediate feedback, which is crucial for grasping the fundamentals.</t>
-  </si>
-  <si>
-    <t>Didactic questioning is employed to actively engage learners and assess their understanding throughout the course. By strategically posing questions, the facilitator can guide learners to discover key concepts and ensure they are following the material, which helps to solidify their comprehension.</t>
-  </si>
-  <si>
-    <t>Demonstration is crucial for illustrating the practical application of tools and processes. By observing the facilitator execute specific tasks, learners can visualize the steps involved and better understand how to apply the techniques in real-world scenarios. This hands-on approach facilitates a deeper understanding and skill development.</t>
-  </si>
-  <si>
-    <t>Practical exercises are essential to allow learners to apply the knowledge and skills. By engaging in hands-on activities, learners can reinforce their understanding, develop proficiency, and build confidence in their ability to effectively use these skills.</t>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>The lecture method is particularly suitable for this context as it allows the facilitator to systematically present complex concepts and frameworks related to the subject matter. By delivering structured content, the facilitator can ensure that learners receive a comprehensive overview of essential principles, which is crucial for establishing foundational knowledge. This method also enables the facilitator to control the flow of information, ensuring clarity and coherence, which is vital for learners to grasp intricate ideas effectively.</t>
+  </si>
+  <si>
+    <t>Didactic questioning is an effective technique in this context as it encourages active engagement and critical thinking among learners. By posing targeted questions, the facilitator can guide learners to explore concepts more deeply and arrive at their own conclusions. This method fosters an interactive learning environment, ensuring that learners are not passive recipients of information but are actively involved in the learning process, which enhances retention and understanding.</t>
+  </si>
+  <si>
+    <t>Demonstration is an ideal instructional method for this course as it provides learners with visual and practical examples of how to execute specific tasks and processes. By showcasing real-time applications, learners can better understand the practical implications of theoretical concepts. This method also allows for immediate feedback and clarification, which is essential for mastering complex skills and ensuring that learners can apply their knowledge effectively in real-world scenarios.</t>
+  </si>
+  <si>
+    <t>The practice method is crucial in this context as it allows learners to apply theoretical knowledge in practical situations, reinforcing their understanding and skills. By engaging in hands-on activities, learners can experiment, make mistakes, and learn from them in a supportive environment. This method not only builds confidence but also prepares learners for future challenges by equipping them with the necessary skills to navigate real-world applications successfully.</t>
   </si>
 </sst>
 </file>

--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -22,28 +22,28 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Lecture</t>
-  </si>
-  <si>
-    <t>Didactic Questioning</t>
-  </si>
-  <si>
-    <t>Demonstration</t>
-  </si>
-  <si>
-    <t>Practice</t>
-  </si>
-  <si>
-    <t>The lecture method is particularly suitable for this context as it allows the facilitator to systematically present complex concepts and frameworks related to the subject matter. By delivering structured content, the facilitator can ensure that learners receive a comprehensive overview of essential principles, which is crucial for establishing foundational knowledge. This method also enables the facilitator to control the flow of information, ensuring clarity and coherence, which is vital for learners to grasp intricate ideas effectively.</t>
-  </si>
-  <si>
-    <t>Didactic questioning is an effective technique in this context as it encourages active engagement and critical thinking among learners. By posing targeted questions, the facilitator can guide learners to explore concepts more deeply and arrive at their own conclusions. This method fosters an interactive learning environment, ensuring that learners are not passive recipients of information but are actively involved in the learning process, which enhances retention and understanding.</t>
-  </si>
-  <si>
-    <t>Demonstration is an ideal instructional method for this course as it provides learners with visual and practical examples of how to execute specific tasks and processes. By showcasing real-time applications, learners can better understand the practical implications of theoretical concepts. This method also allows for immediate feedback and clarification, which is essential for mastering complex skills and ensuring that learners can apply their knowledge effectively in real-world scenarios.</t>
-  </si>
-  <si>
-    <t>The practice method is crucial in this context as it allows learners to apply theoretical knowledge in practical situations, reinforcing their understanding and skills. By engaging in hands-on activities, learners can experiment, make mistakes, and learn from them in a supportive environment. This method not only builds confidence but also prepares learners for future challenges by equipping them with the necessary skills to navigate real-world applications successfully.</t>
+    <t>Classroom</t>
+  </si>
+  <si>
+    <t>Peer Sharing</t>
+  </si>
+  <si>
+    <t>Group Discussion</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Classroom instruction, involving lectures and presentations, is essential for establishing a strong foundation. It allows for the efficient and structured delivery of core concepts, ensuring all learners receive a consistent understanding of the methods and procedures central to security risk analysis.</t>
+  </si>
+  <si>
+    <t>Peer sharing provides an opportunity for learners to learn from each other's experiences and insights. By discussing real-world scenarios and challenges, learners can broaden their perspectives and gain a deeper appreciation for the complexities involved in identifying and addressing security risks.</t>
+  </si>
+  <si>
+    <t>Group discussions encourage active participation and collaborative problem-solving. By working together to analyze potential security threats and develop mitigation strategies, learners can enhance their critical thinking skills and learn to leverage the diverse expertise within a security team.</t>
+  </si>
+  <si>
+    <t>Case studies offer realistic scenarios that learners can analyze to apply their knowledge and skills. By examining specific instances of security breaches or vulnerabilities, learners can develop their ability to identify risks, assess potential impacts, and recommend appropriate corrective actions, thereby bridging the gap between theory and practice.</t>
   </si>
 </sst>
 </file>

--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Instructional Method</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Classroom</t>
-  </si>
-  <si>
-    <t>Peer Sharing</t>
-  </si>
-  <si>
-    <t>Group Discussion</t>
-  </si>
-  <si>
-    <t>Case Study</t>
-  </si>
-  <si>
-    <t>Classroom instruction, involving lectures and presentations, is essential for establishing a strong foundation. It allows for the efficient and structured delivery of core concepts, ensuring all learners receive a consistent understanding of the methods and procedures central to security risk analysis.</t>
-  </si>
-  <si>
-    <t>Peer sharing provides an opportunity for learners to learn from each other's experiences and insights. By discussing real-world scenarios and challenges, learners can broaden their perspectives and gain a deeper appreciation for the complexities involved in identifying and addressing security risks.</t>
-  </si>
-  <si>
-    <t>Group discussions encourage active participation and collaborative problem-solving. By working together to analyze potential security threats and develop mitigation strategies, learners can enhance their critical thinking skills and learn to leverage the diverse expertise within a security team.</t>
-  </si>
-  <si>
-    <t>Case studies offer realistic scenarios that learners can analyze to apply their knowledge and skills. By examining specific instances of security breaches or vulnerabilities, learners can develop their ability to identify risks, assess potential impacts, and recommend appropriate corrective actions, thereby bridging the gap between theory and practice.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,54 +420,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Instructional Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interactive Presentation</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Interactive Presentation is an ideal instructional method for this course as it allows learners to engage actively with the content related to generative AI and storytelling. By incorporating interactive elements, such as real-time AI tool demonstrations and audience participation, learners can better understand complex concepts like AI-generated script ideation and ethical considerations. This method fosters an engaging learning environment where learners can ask questions and receive immediate feedback, enhancing their grasp of narrative structures and AI applications in media.</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brainstorming</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brainstorming is particularly suitable for this course as it encourages creative thinking and collaboration among learners. When developing compelling script elements or identifying effective prompt terms for AI-generated storyboards, brainstorming sessions allow learners to explore diverse ideas and perspectives. This method supports the iterative process of refining AI-generated content by enabling learners to collectively generate innovative solutions and enhance their understanding of narrative components and visual storytelling techniques.</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Demonstration</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Demonstration is a crucial instructional method for this course, as it provides learners with a visual and hands-on approach to understanding generative AI tools and techniques. By demonstrating how to use AI tools for script development, storyboarding, and video creation, learners can see the practical application of theoretical concepts. This method helps learners grasp complex processes, such as refining video scripts for clarity and tone, by breaking them down into manageable steps and showcasing real-time results, thereby enhancing their learning experience.</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Drill and Practice</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Drill and Practice is an effective instructional method for reinforcing learners' understanding of AI-generated content and ethical considerations. By providing opportunities for learners to practice applying AI tools and techniques in a controlled environment, they can refine their skills and knowledge. This method helps learners build confidence in their ability to analyze AI outputs for bias and copyright risks, apply corrective actions, and develop best practices for ethical AI content generation. Through repeated practice, learners can better prepare for real-world challenges in media production.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interactive Presentation is an ideal instructional method for this course as it allows for dynamic engagement with the content related to storytelling and storyboarding using generative AI. This method enables the facilitator to present complex concepts such as AI-generated script ideation techniques and ethical considerations in a visually engaging manner. By incorporating multimedia elements and interactive components, learners can better grasp the narrative structures and creative storytelling principles essential for developing compelling script elements. This approach also encourages active participation, allowing learners to ask questions and engage in discussions, thereby enhancing their understanding of the material.</t>
+          <t>Interactive Presentation is an ideal instructional method for this course as it allows learners to engage actively with the content related to generative AI and storytelling. By incorporating interactive elements, such as real-time AI tool demonstrations and audience participation, learners can better understand complex concepts like AI-generated script ideation and ethical considerations. This method fosters an engaging learning environment where learners can ask questions and receive immediate feedback, enhancing their grasp of narrative structures and AI applications in media.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brainstorming is a crucial instructional method for fostering creativity and innovation in the context of generative AI for storytelling and storyboarding. This method encourages learners to collaboratively generate ideas and explore various narrative components and prompt terms that can enhance AI-generated storyboards. By engaging in brainstorming sessions, learners can identify effective strategies for refining video scripts and developing unique story elements. This collaborative approach not only stimulates creative thinking but also helps learners to consider diverse perspectives, which is essential for creating inclusive and engaging narratives.</t>
+          <t>Brainstorming is particularly suitable for this course as it encourages creative thinking and collaboration among learners. When developing compelling script elements or identifying effective prompt terms for AI-generated storyboards, brainstorming sessions allow learners to explore diverse ideas and perspectives. This method supports the iterative process of refining AI-generated content by enabling learners to collectively generate innovative solutions and enhance their understanding of narrative components and visual storytelling techniques.</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Demonstration is an effective instructional method for this course as it provides learners with a clear and concrete example of how to utilize generative AI tools for script and storyboard development. By visually showcasing the process of generating AI-driven story elements and refining video scripts, learners can better understand the practical application of AI techniques. This hands-on approach allows learners to see the results of their work in real-time, which can be motivating and rewarding. Demonstrations also help to break down complex processes into manageable steps, making it easier for learners to grasp the intricacies of AI-generated content creation.</t>
+          <t>Demonstration is a crucial instructional method for this course, as it provides learners with a visual and hands-on approach to understanding generative AI tools and techniques. By demonstrating how to use AI tools for script development, storyboarding, and video creation, learners can see the practical application of theoretical concepts. This method helps learners grasp complex processes, such as refining video scripts for clarity and tone, by breaking them down into manageable steps and showcasing real-time results, thereby enhancing their learning experience.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drill and Practice is an essential instructional method for reinforcing learners' understanding of generative AI tools and techniques. By providing opportunities for learners to repeatedly apply what they have learned, this method helps to solidify their skills in developing narrative structures and enhancing AI-generated storyboards. Through practice, learners can receive feedback on their performance, identify areas for improvement, and build confidence in their ability to create compelling and ethically sound AI-generated content. This method also prepares learners for future challenges by equipping them with the necessary skills and knowledge to succeed in the media industry.</t>
+          <t>Drill and Practice is an effective instructional method for reinforcing learners' understanding of AI-generated content and ethical considerations. By providing opportunities for learners to practice applying AI tools and techniques in a controlled environment, they can refine their skills and knowledge. This method helps learners build confidence in their ability to analyze AI outputs for bias and copyright risks, apply corrective actions, and develop best practices for ethical AI content generation. Through repeated practice, learners can better prepare for real-world challenges in media production.</t>
         </is>
       </c>
     </row>
